--- a/TSMV55_commads.xlsx
+++ b/TSMV55_commads.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\Documents\SPadmin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcellszabo/PycharmProjects/spadmin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAC0F375-138B-4E41-B9D2-849A6612A7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48779BDC-9AE6-9D40-81FE-B5B504E82232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="241">
   <si>
     <t>accept</t>
   </si>
@@ -752,12 +752,21 @@
   </si>
   <si>
     <t>*filename</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Nem tökéletes</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -845,7 +854,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -861,7 +870,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1156,27 +1165,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J348"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C161" sqref="C161:C230"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B1" s="8">
         <v>1</v>
       </c>
@@ -1205,7 +1214,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>238</v>
+      </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1220,7 +1232,10 @@
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>238</v>
+      </c>
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1239,7 +1254,10 @@
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>238</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1260,7 +1278,10 @@
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>238</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1281,7 +1302,10 @@
       <c r="I5" s="2"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>238</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1301,7 +1325,10 @@
       <c r="H6" s="5"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>238</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1316,7 +1343,10 @@
       <c r="I7" s="2"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>238</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1345,7 +1375,10 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>238</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1374,7 +1407,10 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>239</v>
+      </c>
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1393,7 +1429,10 @@
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>239</v>
+      </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
@@ -1420,7 +1459,10 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>239</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1449,7 +1491,10 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>239</v>
+      </c>
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
@@ -1472,7 +1517,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1487,7 +1532,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
@@ -1502,7 +1547,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1517,7 +1562,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>4</v>
       </c>
@@ -1532,7 +1577,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>5</v>
       </c>
@@ -1540,7 +1585,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>6</v>
       </c>
@@ -1548,7 +1593,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>6</v>
       </c>
@@ -1556,7 +1601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
@@ -1564,7 +1609,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
         <v>6</v>
       </c>
@@ -1572,7 +1617,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
         <v>6</v>
       </c>
@@ -1580,7 +1625,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>6</v>
       </c>
@@ -1588,7 +1633,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
         <v>7</v>
       </c>
@@ -1596,7 +1641,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
         <v>8</v>
       </c>
@@ -1604,7 +1649,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
         <v>9</v>
       </c>
@@ -1612,12 +1657,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
         <v>11</v>
       </c>
@@ -1625,7 +1670,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
         <v>12</v>
       </c>
@@ -1633,7 +1678,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
         <v>12</v>
       </c>
@@ -1641,7 +1686,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
         <v>12</v>
       </c>
@@ -1649,7 +1694,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
         <v>12</v>
       </c>
@@ -1657,7 +1702,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
         <v>12</v>
       </c>
@@ -1665,7 +1710,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
         <v>12</v>
       </c>
@@ -1673,7 +1718,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
         <v>12</v>
       </c>
@@ -1681,7 +1726,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
         <v>12</v>
       </c>
@@ -1689,7 +1734,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
         <v>12</v>
       </c>
@@ -1697,7 +1742,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
         <v>13</v>
       </c>
@@ -1705,7 +1750,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
         <v>13</v>
       </c>
@@ -1713,7 +1758,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
         <v>13</v>
       </c>
@@ -1721,7 +1766,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
         <v>13</v>
       </c>
@@ -1729,7 +1774,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
         <v>13</v>
       </c>
@@ -1737,7 +1782,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -1745,7 +1790,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
         <v>13</v>
       </c>
@@ -1753,7 +1798,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
         <v>13</v>
       </c>
@@ -1761,7 +1806,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
         <v>13</v>
       </c>
@@ -1769,7 +1814,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
         <v>13</v>
       </c>
@@ -1777,7 +1822,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
         <v>13</v>
       </c>
@@ -1785,7 +1830,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
         <v>13</v>
       </c>
@@ -1793,7 +1838,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
         <v>13</v>
       </c>
@@ -1801,7 +1846,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
         <v>13</v>
       </c>
@@ -1809,7 +1854,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
         <v>13</v>
       </c>
@@ -1817,7 +1862,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
         <v>13</v>
       </c>
@@ -1825,7 +1870,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -1833,7 +1878,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -1841,7 +1886,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
         <v>13</v>
       </c>
@@ -1849,7 +1894,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
         <v>13</v>
       </c>
@@ -1857,7 +1902,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
         <v>13</v>
       </c>
@@ -1865,7 +1910,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
         <v>13</v>
       </c>
@@ -1873,7 +1918,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -1881,7 +1926,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
         <v>13</v>
       </c>
@@ -1889,7 +1934,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
         <v>13</v>
       </c>
@@ -1897,7 +1942,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64" s="6" t="s">
         <v>13</v>
       </c>
@@ -1905,7 +1950,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
         <v>13</v>
       </c>
@@ -1913,7 +1958,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="6" t="s">
         <v>13</v>
       </c>
@@ -1921,7 +1966,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="6" t="s">
         <v>13</v>
       </c>
@@ -1929,7 +1974,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="6" t="s">
         <v>13</v>
       </c>
@@ -1937,7 +1982,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" s="6" t="s">
         <v>13</v>
       </c>
@@ -1945,7 +1990,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" s="6" t="s">
         <v>13</v>
       </c>
@@ -1953,7 +1998,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
         <v>13</v>
       </c>
@@ -1961,7 +2006,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="6" t="s">
         <v>13</v>
       </c>
@@ -1969,7 +2014,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="6" t="s">
         <v>13</v>
       </c>
@@ -1977,7 +2022,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="6" t="s">
         <v>13</v>
       </c>
@@ -1985,7 +2030,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" s="6" t="s">
         <v>13</v>
       </c>
@@ -1993,7 +2038,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
         <v>13</v>
       </c>
@@ -2001,7 +2046,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
         <v>13</v>
       </c>
@@ -2009,7 +2054,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="6" t="s">
         <v>13</v>
       </c>
@@ -2017,7 +2062,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" s="6" t="s">
         <v>14</v>
       </c>
@@ -2025,7 +2070,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="6" t="s">
         <v>14</v>
       </c>
@@ -2033,7 +2078,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" s="6" t="s">
         <v>14</v>
       </c>
@@ -2041,7 +2086,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" s="6" t="s">
         <v>14</v>
       </c>
@@ -2049,7 +2094,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" s="6" t="s">
         <v>14</v>
       </c>
@@ -2057,7 +2102,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" s="6" t="s">
         <v>14</v>
       </c>
@@ -2065,7 +2110,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" s="6" t="s">
         <v>14</v>
       </c>
@@ -2073,7 +2118,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" s="6" t="s">
         <v>14</v>
       </c>
@@ -2081,7 +2126,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" s="6" t="s">
         <v>14</v>
       </c>
@@ -2089,7 +2134,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" s="6" t="s">
         <v>14</v>
       </c>
@@ -2097,7 +2142,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" s="6" t="s">
         <v>14</v>
       </c>
@@ -2105,7 +2150,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" s="6" t="s">
         <v>14</v>
       </c>
@@ -2113,7 +2158,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" s="6" t="s">
         <v>14</v>
       </c>
@@ -2121,7 +2166,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" s="6" t="s">
         <v>14</v>
       </c>
@@ -2129,7 +2174,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
         <v>14</v>
       </c>
@@ -2137,7 +2182,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B94" s="6" t="s">
         <v>14</v>
       </c>
@@ -2145,7 +2190,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" s="6" t="s">
         <v>14</v>
       </c>
@@ -2153,7 +2198,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" s="6" t="s">
         <v>14</v>
       </c>
@@ -2161,7 +2206,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" s="6" t="s">
         <v>14</v>
       </c>
@@ -2169,7 +2214,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" s="6" t="s">
         <v>14</v>
       </c>
@@ -2177,7 +2222,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B99" s="6" t="s">
         <v>14</v>
       </c>
@@ -2185,7 +2230,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B100" s="6" t="s">
         <v>14</v>
       </c>
@@ -2193,7 +2238,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B101" s="6" t="s">
         <v>14</v>
       </c>
@@ -2201,7 +2246,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B102" s="6" t="s">
         <v>14</v>
       </c>
@@ -2209,7 +2254,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B103" s="6" t="s">
         <v>14</v>
       </c>
@@ -2217,7 +2262,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B104" s="6" t="s">
         <v>14</v>
       </c>
@@ -2225,7 +2270,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B105" s="6" t="s">
         <v>14</v>
       </c>
@@ -2233,7 +2278,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B106" s="6" t="s">
         <v>14</v>
       </c>
@@ -2241,7 +2286,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B107" s="6" t="s">
         <v>14</v>
       </c>
@@ -2249,7 +2294,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B108" s="6" t="s">
         <v>14</v>
       </c>
@@ -2257,7 +2302,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B109" s="6" t="s">
         <v>14</v>
       </c>
@@ -2265,7 +2310,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B110" s="6" t="s">
         <v>14</v>
       </c>
@@ -2273,7 +2318,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B111" s="6" t="s">
         <v>14</v>
       </c>
@@ -2281,7 +2326,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B112" s="6" t="s">
         <v>14</v>
       </c>
@@ -2289,7 +2334,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113" s="6" t="s">
         <v>14</v>
       </c>
@@ -2297,7 +2342,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114" s="6" t="s">
         <v>14</v>
       </c>
@@ -2305,7 +2350,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115" s="6" t="s">
         <v>14</v>
       </c>
@@ -2313,7 +2358,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B116" s="6" t="s">
         <v>14</v>
       </c>
@@ -2321,7 +2366,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117" s="6" t="s">
         <v>14</v>
       </c>
@@ -2329,7 +2374,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118" s="6" t="s">
         <v>14</v>
       </c>
@@ -2337,7 +2382,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119" s="6" t="s">
         <v>14</v>
       </c>
@@ -2345,7 +2390,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B120" s="6" t="s">
         <v>15</v>
       </c>
@@ -2353,7 +2398,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121" s="6" t="s">
         <v>15</v>
       </c>
@@ -2361,7 +2406,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B122" s="6" t="s">
         <v>16</v>
       </c>
@@ -2369,7 +2414,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123" s="6" t="s">
         <v>17</v>
       </c>
@@ -2377,7 +2422,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B124" s="6" t="s">
         <v>18</v>
       </c>
@@ -2385,7 +2430,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B125" s="6" t="s">
         <v>18</v>
       </c>
@@ -2393,7 +2438,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B126" s="6" t="s">
         <v>19</v>
       </c>
@@ -2401,7 +2446,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B127" s="6" t="s">
         <v>20</v>
       </c>
@@ -2409,7 +2454,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B128" s="6" t="s">
         <v>21</v>
       </c>
@@ -2417,7 +2462,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" s="6" t="s">
         <v>22</v>
       </c>
@@ -2425,7 +2470,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" s="6" t="s">
         <v>22</v>
       </c>
@@ -2433,7 +2478,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131" s="6" t="s">
         <v>22</v>
       </c>
@@ -2441,7 +2486,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B132" s="6" t="s">
         <v>22</v>
       </c>
@@ -2449,7 +2494,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133" s="6" t="s">
         <v>23</v>
       </c>
@@ -2457,7 +2502,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134" s="6" t="s">
         <v>23</v>
       </c>
@@ -2465,7 +2510,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135" s="6" t="s">
         <v>24</v>
       </c>
@@ -2473,7 +2518,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B136" s="6" t="s">
         <v>24</v>
       </c>
@@ -2481,7 +2526,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137" s="6" t="s">
         <v>25</v>
       </c>
@@ -2489,7 +2534,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B138" s="6" t="s">
         <v>25</v>
       </c>
@@ -2497,17 +2542,17 @@
         <v>133</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B139" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B140" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B141" s="6" t="s">
         <v>28</v>
       </c>
@@ -2515,7 +2560,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B142" s="6" t="s">
         <v>28</v>
       </c>
@@ -2523,7 +2568,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143" s="6" t="s">
         <v>28</v>
       </c>
@@ -2531,7 +2576,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B144" s="6" t="s">
         <v>28</v>
       </c>
@@ -2539,7 +2584,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B145" s="6" t="s">
         <v>29</v>
       </c>
@@ -2547,7 +2592,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B146" s="6" t="s">
         <v>30</v>
       </c>
@@ -2555,7 +2600,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B147" s="6" t="s">
         <v>31</v>
       </c>
@@ -2563,7 +2608,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B148" s="6" t="s">
         <v>32</v>
       </c>
@@ -2571,7 +2616,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B149" s="6" t="s">
         <v>33</v>
       </c>
@@ -2579,7 +2624,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B150" s="6" t="s">
         <v>32</v>
       </c>
@@ -2587,12 +2632,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B151" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B152" s="6" t="s">
         <v>135</v>
       </c>
@@ -2600,7 +2645,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B153" s="6" t="s">
         <v>35</v>
       </c>
@@ -2608,7 +2653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B154" s="6" t="s">
         <v>35</v>
       </c>
@@ -2616,7 +2661,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B155" s="6" t="s">
         <v>35</v>
       </c>
@@ -2624,7 +2669,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B156" s="6" t="s">
         <v>35</v>
       </c>
@@ -2632,7 +2677,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B157" s="6" t="s">
         <v>36</v>
       </c>
@@ -2640,12 +2685,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B158" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" s="6" t="s">
         <v>38</v>
       </c>
@@ -2653,12 +2698,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B160" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B161" s="6" t="s">
         <v>40</v>
       </c>
@@ -2666,7 +2711,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B162" s="6" t="s">
         <v>40</v>
       </c>
@@ -2674,7 +2719,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B163" s="6" t="s">
         <v>40</v>
       </c>
@@ -2682,7 +2727,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B164" s="6" t="s">
         <v>40</v>
       </c>
@@ -2690,7 +2735,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B165" s="6" t="s">
         <v>40</v>
       </c>
@@ -2698,7 +2743,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B166" s="6" t="s">
         <v>40</v>
       </c>
@@ -2706,7 +2751,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B167" s="6" t="s">
         <v>40</v>
       </c>
@@ -2714,7 +2759,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B168" s="6" t="s">
         <v>40</v>
       </c>
@@ -2722,7 +2767,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B169" s="6" t="s">
         <v>40</v>
       </c>
@@ -2730,7 +2775,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B170" s="6" t="s">
         <v>40</v>
       </c>
@@ -2738,7 +2783,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B171" s="6" t="s">
         <v>40</v>
       </c>
@@ -2746,7 +2791,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B172" s="6" t="s">
         <v>40</v>
       </c>
@@ -2754,7 +2799,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B173" s="6" t="s">
         <v>40</v>
       </c>
@@ -2762,7 +2807,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B174" s="6" t="s">
         <v>40</v>
       </c>
@@ -2770,7 +2815,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B175" s="6" t="s">
         <v>40</v>
       </c>
@@ -2778,7 +2823,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B176" s="6" t="s">
         <v>40</v>
       </c>
@@ -2786,7 +2831,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B177" s="6" t="s">
         <v>40</v>
       </c>
@@ -2794,7 +2839,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B178" s="6" t="s">
         <v>40</v>
       </c>
@@ -2802,7 +2847,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B179" s="6" t="s">
         <v>40</v>
       </c>
@@ -2810,7 +2855,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B180" s="6" t="s">
         <v>40</v>
       </c>
@@ -2818,7 +2863,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B181" s="6" t="s">
         <v>40</v>
       </c>
@@ -2826,7 +2871,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B182" s="6" t="s">
         <v>40</v>
       </c>
@@ -2834,7 +2879,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B183" s="6" t="s">
         <v>40</v>
       </c>
@@ -2842,7 +2887,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B184" s="6" t="s">
         <v>40</v>
       </c>
@@ -2850,7 +2895,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B185" s="6" t="s">
         <v>40</v>
       </c>
@@ -2858,7 +2903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B186" s="6" t="s">
         <v>40</v>
       </c>
@@ -2866,7 +2911,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B187" s="6" t="s">
         <v>40</v>
       </c>
@@ -2874,7 +2919,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B188" s="6" t="s">
         <v>40</v>
       </c>
@@ -2882,7 +2927,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B189" s="6" t="s">
         <v>40</v>
       </c>
@@ -2890,7 +2935,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B190" s="6" t="s">
         <v>40</v>
       </c>
@@ -2898,7 +2943,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B191" s="6" t="s">
         <v>40</v>
       </c>
@@ -2906,7 +2951,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B192" s="6" t="s">
         <v>40</v>
       </c>
@@ -2914,7 +2959,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B193" s="6" t="s">
         <v>40</v>
       </c>
@@ -2922,7 +2967,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B194" s="6" t="s">
         <v>40</v>
       </c>
@@ -2930,7 +2975,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B195" s="6" t="s">
         <v>40</v>
       </c>
@@ -2938,7 +2983,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B196" s="6" t="s">
         <v>40</v>
       </c>
@@ -2946,7 +2991,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>240</v>
+      </c>
       <c r="B197" s="6" t="s">
         <v>40</v>
       </c>
@@ -2954,7 +3002,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B198" s="6" t="s">
         <v>40</v>
       </c>
@@ -2962,7 +3010,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B199" s="6" t="s">
         <v>40</v>
       </c>
@@ -2970,7 +3018,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B200" s="6" t="s">
         <v>40</v>
       </c>
@@ -2978,7 +3026,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B201" s="6" t="s">
         <v>40</v>
       </c>
@@ -2986,7 +3034,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B202" s="6" t="s">
         <v>40</v>
       </c>
@@ -2994,7 +3042,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B203" s="6" t="s">
         <v>40</v>
       </c>
@@ -3002,7 +3050,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B204" s="6" t="s">
         <v>40</v>
       </c>
@@ -3010,7 +3058,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B205" s="6" t="s">
         <v>40</v>
       </c>
@@ -3018,7 +3066,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B206" s="6" t="s">
         <v>40</v>
       </c>
@@ -3026,7 +3074,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B207" s="6" t="s">
         <v>40</v>
       </c>
@@ -3034,7 +3082,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B208" s="6" t="s">
         <v>40</v>
       </c>
@@ -3042,7 +3090,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B209" s="6" t="s">
         <v>40</v>
       </c>
@@ -3050,7 +3098,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B210" s="6" t="s">
         <v>40</v>
       </c>
@@ -3058,7 +3106,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B211" s="6" t="s">
         <v>40</v>
       </c>
@@ -3066,7 +3114,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B212" s="6" t="s">
         <v>40</v>
       </c>
@@ -3074,7 +3122,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B213" s="6" t="s">
         <v>40</v>
       </c>
@@ -3082,7 +3130,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B214" s="6" t="s">
         <v>40</v>
       </c>
@@ -3090,7 +3138,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B215" s="6" t="s">
         <v>40</v>
       </c>
@@ -3098,7 +3146,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B216" s="6" t="s">
         <v>40</v>
       </c>
@@ -3106,7 +3154,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B217" s="6" t="s">
         <v>40</v>
       </c>
@@ -3114,7 +3162,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B218" s="6" t="s">
         <v>40</v>
       </c>
@@ -3122,7 +3170,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B219" s="6" t="s">
         <v>40</v>
       </c>
@@ -3130,7 +3178,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B220" s="6" t="s">
         <v>40</v>
       </c>
@@ -3138,7 +3186,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B221" s="6" t="s">
         <v>40</v>
       </c>
@@ -3146,7 +3194,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>238</v>
+      </c>
       <c r="B222" s="6" t="s">
         <v>40</v>
       </c>
@@ -3154,7 +3205,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B223" s="6" t="s">
         <v>40</v>
       </c>
@@ -3162,7 +3213,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B224" s="6" t="s">
         <v>40</v>
       </c>
@@ -3170,7 +3221,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B225" s="6" t="s">
         <v>40</v>
       </c>
@@ -3178,7 +3229,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B226" s="6" t="s">
         <v>40</v>
       </c>
@@ -3186,7 +3237,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B227" s="6" t="s">
         <v>40</v>
       </c>
@@ -3194,7 +3245,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B228" s="6" t="s">
         <v>40</v>
       </c>
@@ -3202,7 +3253,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B229" s="6" t="s">
         <v>40</v>
       </c>
@@ -3210,7 +3261,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B230" s="6" t="s">
         <v>40</v>
       </c>
@@ -3218,12 +3269,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B231" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B232" s="6" t="s">
         <v>42</v>
       </c>
@@ -3231,7 +3282,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B233" s="6" t="s">
         <v>43</v>
       </c>
@@ -3239,7 +3290,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B234" s="6" t="s">
         <v>44</v>
       </c>
@@ -3247,7 +3298,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B235" s="6" t="s">
         <v>44</v>
       </c>
@@ -3255,7 +3306,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B236" s="6" t="s">
         <v>45</v>
       </c>
@@ -3263,7 +3314,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B237" s="6" t="s">
         <v>45</v>
       </c>
@@ -3271,7 +3322,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B238" s="6" t="s">
         <v>45</v>
       </c>
@@ -3279,7 +3330,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B239" s="6" t="s">
         <v>46</v>
       </c>
@@ -3287,7 +3338,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B240" s="6" t="s">
         <v>46</v>
       </c>
@@ -3295,7 +3346,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B241" s="6" t="s">
         <v>47</v>
       </c>
@@ -3303,7 +3354,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B242" s="6" t="s">
         <v>47</v>
       </c>
@@ -3311,7 +3362,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B243" s="6" t="s">
         <v>47</v>
       </c>
@@ -3319,7 +3370,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B244" s="6" t="s">
         <v>47</v>
       </c>
@@ -3327,7 +3378,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B245" s="6" t="s">
         <v>47</v>
       </c>
@@ -3335,7 +3386,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B246" s="6" t="s">
         <v>47</v>
       </c>
@@ -3343,12 +3394,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B247" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B248" s="6" t="s">
         <v>49</v>
       </c>
@@ -3356,7 +3407,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B249" s="6" t="s">
         <v>49</v>
       </c>
@@ -3364,7 +3415,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B250" s="6" t="s">
         <v>49</v>
       </c>
@@ -3372,7 +3423,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B251" s="6" t="s">
         <v>49</v>
       </c>
@@ -3380,7 +3431,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B252" s="6" t="s">
         <v>50</v>
       </c>
@@ -3388,7 +3439,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B253" s="6" t="s">
         <v>51</v>
       </c>
@@ -3396,7 +3447,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B254" s="6" t="s">
         <v>51</v>
       </c>
@@ -3404,7 +3455,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B255" s="6" t="s">
         <v>51</v>
       </c>
@@ -3412,7 +3463,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B256" s="6" t="s">
         <v>52</v>
       </c>
@@ -3420,7 +3471,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B257" s="6" t="s">
         <v>52</v>
       </c>
@@ -3428,27 +3479,27 @@
         <v>133</v>
       </c>
     </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B258" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B259" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B260" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B261" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B262" s="6" t="s">
         <v>57</v>
       </c>
@@ -3456,7 +3507,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B263" s="6" t="s">
         <v>57</v>
       </c>
@@ -3464,7 +3515,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B264" s="6" t="s">
         <v>57</v>
       </c>
@@ -3472,7 +3523,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B265" s="6" t="s">
         <v>57</v>
       </c>
@@ -3480,7 +3531,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B266" s="6" t="s">
         <v>57</v>
       </c>
@@ -3488,7 +3539,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B267" s="6" t="s">
         <v>57</v>
       </c>
@@ -3496,7 +3547,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B268" s="6" t="s">
         <v>57</v>
       </c>
@@ -3504,7 +3555,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B269" s="6" t="s">
         <v>57</v>
       </c>
@@ -3512,7 +3563,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B270" s="6" t="s">
         <v>57</v>
       </c>
@@ -3520,7 +3571,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B271" s="6" t="s">
         <v>57</v>
       </c>
@@ -3528,7 +3579,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B272" s="6" t="s">
         <v>57</v>
       </c>
@@ -3536,7 +3587,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B273" s="6" t="s">
         <v>57</v>
       </c>
@@ -3544,7 +3595,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B274" s="6" t="s">
         <v>57</v>
       </c>
@@ -3552,7 +3603,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B275" s="6" t="s">
         <v>57</v>
       </c>
@@ -3560,7 +3611,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B276" s="6" t="s">
         <v>57</v>
       </c>
@@ -3568,7 +3619,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B277" s="6" t="s">
         <v>57</v>
       </c>
@@ -3576,7 +3627,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B278" s="6" t="s">
         <v>57</v>
       </c>
@@ -3584,7 +3635,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B279" s="6" t="s">
         <v>57</v>
       </c>
@@ -3592,7 +3643,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B280" s="6" t="s">
         <v>57</v>
       </c>
@@ -3600,7 +3651,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B281" s="6" t="s">
         <v>57</v>
       </c>
@@ -3608,7 +3659,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B282" s="6" t="s">
         <v>57</v>
       </c>
@@ -3616,7 +3667,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B283" s="6" t="s">
         <v>57</v>
       </c>
@@ -3624,7 +3675,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B284" s="6" t="s">
         <v>57</v>
       </c>
@@ -3632,7 +3683,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B285" s="6" t="s">
         <v>57</v>
       </c>
@@ -3640,7 +3691,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B286" s="6" t="s">
         <v>57</v>
       </c>
@@ -3648,7 +3699,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B287" s="6" t="s">
         <v>57</v>
       </c>
@@ -3656,7 +3707,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B288" s="6" t="s">
         <v>57</v>
       </c>
@@ -3664,7 +3715,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B289" s="6" t="s">
         <v>57</v>
       </c>
@@ -3672,7 +3723,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B290" s="6" t="s">
         <v>57</v>
       </c>
@@ -3680,7 +3731,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B291" s="6" t="s">
         <v>57</v>
       </c>
@@ -3688,7 +3739,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B292" s="6" t="s">
         <v>57</v>
       </c>
@@ -3696,7 +3747,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B293" s="6" t="s">
         <v>57</v>
       </c>
@@ -3704,7 +3755,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B294" s="6" t="s">
         <v>57</v>
       </c>
@@ -3712,7 +3763,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B295" s="6" t="s">
         <v>57</v>
       </c>
@@ -3720,7 +3771,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B296" s="6" t="s">
         <v>57</v>
       </c>
@@ -3728,7 +3779,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B297" s="6" t="s">
         <v>57</v>
       </c>
@@ -3736,7 +3787,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B298" s="6" t="s">
         <v>57</v>
       </c>
@@ -3744,7 +3795,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B299" s="6" t="s">
         <v>57</v>
       </c>
@@ -3752,7 +3803,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B300" s="6" t="s">
         <v>57</v>
       </c>
@@ -3760,7 +3811,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B301" s="6" t="s">
         <v>57</v>
       </c>
@@ -3768,7 +3819,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B302" s="6" t="s">
         <v>57</v>
       </c>
@@ -3776,7 +3827,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B303" s="6" t="s">
         <v>57</v>
       </c>
@@ -3784,7 +3835,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B304" s="6" t="s">
         <v>57</v>
       </c>
@@ -3792,7 +3843,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B305" s="6" t="s">
         <v>57</v>
       </c>
@@ -3800,7 +3851,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B306" s="6" t="s">
         <v>57</v>
       </c>
@@ -3808,7 +3859,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B307" s="6" t="s">
         <v>57</v>
       </c>
@@ -3816,12 +3867,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B308" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B309" s="6" t="s">
         <v>59</v>
       </c>
@@ -3829,7 +3880,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B310" s="6" t="s">
         <v>60</v>
       </c>
@@ -3837,7 +3888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B311" s="6" t="s">
         <v>61</v>
       </c>
@@ -3845,7 +3896,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B312" s="6" t="s">
         <v>62</v>
       </c>
@@ -3853,7 +3904,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B313" s="6" t="s">
         <v>62</v>
       </c>
@@ -3861,7 +3912,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B314" s="6" t="s">
         <v>62</v>
       </c>
@@ -3869,7 +3920,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B315" s="6" t="s">
         <v>63</v>
       </c>
@@ -3877,7 +3928,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B316" s="6" t="s">
         <v>63</v>
       </c>
@@ -3885,7 +3936,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B317" s="6" t="s">
         <v>63</v>
       </c>
@@ -3893,7 +3944,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B318" s="6" t="s">
         <v>63</v>
       </c>
@@ -3901,7 +3952,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B319" s="6" t="s">
         <v>63</v>
       </c>
@@ -3909,7 +3960,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="320" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B320" s="6" t="s">
         <v>63</v>
       </c>
@@ -3917,7 +3968,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B321" s="6" t="s">
         <v>63</v>
       </c>
@@ -3925,7 +3976,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B322" s="6" t="s">
         <v>63</v>
       </c>
@@ -3933,7 +3984,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="323" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B323" s="6" t="s">
         <v>63</v>
       </c>
@@ -3941,7 +3992,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="324" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B324" s="6" t="s">
         <v>63</v>
       </c>
@@ -3949,7 +4000,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B325" s="6" t="s">
         <v>63</v>
       </c>
@@ -3957,7 +4008,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B326" s="6" t="s">
         <v>63</v>
       </c>
@@ -3965,7 +4016,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B327" s="6" t="s">
         <v>63</v>
       </c>
@@ -3973,7 +4024,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B328" s="6" t="s">
         <v>63</v>
       </c>
@@ -3981,7 +4032,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B329" s="6" t="s">
         <v>63</v>
       </c>
@@ -3989,7 +4040,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="330" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B330" s="6" t="s">
         <v>63</v>
       </c>
@@ -3997,7 +4048,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B331" s="6" t="s">
         <v>63</v>
       </c>
@@ -4005,7 +4056,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="332" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B332" s="6" t="s">
         <v>63</v>
       </c>
@@ -4013,7 +4064,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="333" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B333" s="6" t="s">
         <v>63</v>
       </c>
@@ -4021,7 +4072,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="334" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B334" s="6" t="s">
         <v>63</v>
       </c>
@@ -4029,7 +4080,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B335" s="6" t="s">
         <v>63</v>
       </c>
@@ -4037,7 +4088,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B336" s="6" t="s">
         <v>63</v>
       </c>
@@ -4045,7 +4096,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B337" s="6" t="s">
         <v>63</v>
       </c>
@@ -4053,7 +4104,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B338" s="6" t="s">
         <v>63</v>
       </c>
@@ -4061,7 +4112,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="339" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B339" s="6" t="s">
         <v>63</v>
       </c>
@@ -4069,7 +4120,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="340" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B340" s="6" t="s">
         <v>63</v>
       </c>
@@ -4077,7 +4128,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="341" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B341" s="6" t="s">
         <v>63</v>
       </c>
@@ -4085,7 +4136,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="342" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B342" s="6" t="s">
         <v>63</v>
       </c>
@@ -4093,7 +4144,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="343" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B343" s="6" t="s">
         <v>63</v>
       </c>
@@ -4101,7 +4152,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="344" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B344" s="6" t="s">
         <v>63</v>
       </c>
@@ -4109,7 +4160,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="345" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B345" s="6" t="s">
         <v>63</v>
       </c>
@@ -4117,7 +4168,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="346" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B346" s="6" t="s">
         <v>64</v>
       </c>
@@ -4125,7 +4176,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="347" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B347" s="6" t="s">
         <v>64</v>
       </c>
@@ -4133,13 +4184,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="348" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B348" s="6" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:J362"/>
+  <autoFilter ref="B1:J362" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
